--- a/biology/Zoologie/Eleutherodactylus_eneidae/Eleutherodactylus_eneidae.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_eneidae/Eleutherodactylus_eneidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus eneidae est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus eneidae est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Porto Rico[1]. Elle se rencontre de 300 à 1 150 m d'altitude dans la cordillère Centrale et la sierra de Luquillo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Porto Rico. Elle se rencontre de 300 à 1 150 m d'altitude dans la cordillère Centrale et la sierra de Luquillo.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 30 mm[2]. Cette grenouille est marron verdâtre à grisâtre avec une teinte jaune sous son ventre. Elle a souvent une paire de lignes concaves colorées vivement sur son dos. Ses yeux sont dorés ou verts, généralement sombres avec des réticulations vénales noires[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 30 mm. Cette grenouille est marron verdâtre à grisâtre avec une teinte jaune sous son ventre. Elle a souvent une paire de lignes concaves colorées vivement sur son dos. Ses yeux sont dorés ou verts, généralement sombres avec des réticulations vénales noires.
 Elle vit sur le sol, sous des rochers et des branches tombées, et dans des arbres recouverts de mousse.
-Cette espèce a souffert d’une forte réduction de sa population, pour une raison encore indéterminée. Elle n'a pas été observée depuis 1990 et pourrait être éteinte[4].
+Cette espèce a souffert d’une forte réduction de sa population, pour une raison encore indéterminée. Elle n'a pas été observée depuis 1990 et pourrait être éteinte.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eneida Bordallo Rivero, l'épouse de Juan Arturo Rivero.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rivero, 1959 : Two new species of Eleutherodactylus from Puerto Rico. Breviora, no 103, p. 1-6 (texte intégral).</t>
         </is>
